--- a/Source/KadOzenka.Dal.IntegrationTests/Modeling/_Files/objects.xlsx
+++ b/Source/KadOzenka.Dal.IntegrationTests/Modeling/_Files/objects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ИД</t>
   </si>
@@ -60,25 +60,13 @@
     <t>Нет</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>77:00:0000000:1151</t>
   </si>
   <si>
-    <t>77:00:0000000:16257</t>
-  </si>
-  <si>
     <t>Адрес 1</t>
   </si>
   <si>
-    <t>Адрес 2</t>
-  </si>
-  <si>
     <t>Помещение</t>
-  </si>
-  <si>
-    <t>Сооружение</t>
   </si>
 </sst>
 </file>
@@ -452,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +512,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -537,49 +525,13 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>12</v>
       </c>
       <c r="L2" s="3">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Source/KadOzenka.Dal.IntegrationTests/Modeling/_Files/objects.xlsx
+++ b/Source/KadOzenka.Dal.IntegrationTests/Modeling/_Files/objects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ИД</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Помещение</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>test_error_for_control_and_training</t>
+  </si>
+  <si>
+    <t>Адрес 2</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +543,42 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Source/KadOzenka.Dal.IntegrationTests/Modeling/_Files/objects.xlsx
+++ b/Source/KadOzenka.Dal.IntegrationTests/Modeling/_Files/objects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>ИД</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Адрес 2</t>
+  </si>
+  <si>
+    <t>test_error_for_training</t>
+  </si>
+  <si>
+    <t>Адрес 3</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +466,7 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
@@ -557,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -577,6 +583,42 @@
       </c>
       <c r="L3" s="3">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
